--- a/docs/About the setting file.xlsx
+++ b/docs/About the setting file.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a5089676\Desktop\work\github\GR-PEACH_Digital_Signage_HVC_FTP\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a5089676\Desktop\work\github\GR-PEACH_Digital_Signage_HVC_FTP\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85968250-B3FC-44C3-876A-96AF7DB01DCC}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7440" xr2:uid="{F4A3512B-C85F-43D1-AAA1-69B099CDFB7A}"/>
   </bookViews>
@@ -167,10 +168,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>顔画像を表示するかどうか。0：表示しない、1：表示する</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>顔検出した人数を表示するかどうか。0：表示しない、1：表示する</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -651,6 +648,28 @@
     </rPh>
     <rPh sb="15" eb="17">
       <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>顔画像を表示するかどうか。0：表示しない、1：表示する、2：検出結果のみ表示(顔画像は表示しない)</t>
+    <rPh sb="30" eb="32">
+      <t>ケンシュツ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1061,23 +1080,23 @@
   <cols>
     <col min="2" max="2" width="25.375" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="81" customWidth="1"/>
+    <col min="4" max="4" width="83.375" customWidth="1"/>
     <col min="5" max="5" width="39.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B2" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B3" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B5" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>35</v>
@@ -1091,21 +1110,21 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B6" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B7" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C7" s="1">
         <v>10000</v>
@@ -1125,7 +1144,7 @@
         <v>500</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>1</v>
@@ -1133,13 +1152,13 @@
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B9" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C9" s="1">
         <v>100</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>2</v>
@@ -1153,7 +1172,7 @@
         <v>1000</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>3</v>
@@ -1167,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>4</v>
@@ -1181,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>5</v>
@@ -1189,16 +1208,16 @@
     </row>
     <row r="13" spans="2:5" ht="93.75" x14ac:dyDescent="0.4">
       <c r="B13" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C13" s="1">
         <v>10</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="75" x14ac:dyDescent="0.4">
@@ -1209,7 +1228,7 @@
         <v>30</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>6</v>
@@ -1223,7 +1242,7 @@
         <v>30</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>7</v>
@@ -1231,13 +1250,13 @@
     </row>
     <row r="16" spans="2:5" ht="112.5" x14ac:dyDescent="0.4">
       <c r="B16" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" s="1">
         <v>8</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>8</v>
@@ -1245,13 +1264,13 @@
     </row>
     <row r="17" spans="2:5" ht="112.5" x14ac:dyDescent="0.4">
       <c r="B17" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C17" s="1">
         <v>-15</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>9</v>
@@ -1259,13 +1278,13 @@
     </row>
     <row r="18" spans="2:5" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B18" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18" s="1">
         <v>20</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>10</v>
@@ -1273,13 +1292,13 @@
     </row>
     <row r="19" spans="2:5" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B19" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C19" s="1">
         <v>20</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>11</v>
@@ -1287,13 +1306,13 @@
     </row>
     <row r="20" spans="2:5" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B20" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C20" s="1">
         <v>20</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>12</v>
@@ -1301,13 +1320,13 @@
     </row>
     <row r="21" spans="2:5" ht="93.75" x14ac:dyDescent="0.4">
       <c r="B21" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C21" s="1">
         <v>300</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>13</v>
@@ -1321,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>14</v>
@@ -1335,7 +1354,7 @@
         <v>10</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>15</v>
@@ -1346,10 +1365,10 @@
         <v>29</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>16</v>
@@ -1363,7 +1382,7 @@
         <v>5</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>17</v>
@@ -1377,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>18</v>
@@ -1391,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>19</v>
@@ -1405,10 +1424,10 @@
         <v>0</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.4">
@@ -1419,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>20</v>
@@ -1427,30 +1446,30 @@
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B30" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C30" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E30" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B31" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C31" s="5">
         <v>2</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
